--- a/selected_particles/100%water2_particle_selection.xlsx
+++ b/selected_particles/100%water2_particle_selection.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\-MY PROJECTS-\00-Reference\0000 HUJI\77302 Physics Lab II\brownian-motion-lab\selected_particles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC7F3A-98E8-4D5D-911C-96F87DEE5D94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="8328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="100%water2_particle_selection" sheetId="1" r:id="rId3"/>
+    <sheet name="100%water2_particle_selection" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,62 +49,370 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col hidden="1" min="6" max="6" width="14.43"/>
+    <col min="6" max="6" width="14.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -118,41 +435,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2227.81944915779</v>
+        <v>2227.8194491577901</v>
       </c>
       <c r="D2" s="1">
-        <v>97.3459812651163</v>
+        <v>97.345981265116293</v>
       </c>
       <c r="E2" s="1">
-        <v>19.8176747525276</v>
+        <v>19.817674752527601</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1819.20078091106</v>
+        <v>1819.2007809110601</v>
       </c>
       <c r="D3" s="1">
-        <v>999.36424198602</v>
+        <v>999.36424198602003</v>
       </c>
       <c r="E3" s="1">
         <v>17.1828623697883</v>
@@ -161,24 +478,24 @@
         <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1507.27189208748</v>
       </c>
       <c r="D4" s="1">
-        <v>1164.7910501769</v>
+        <v>1164.7910501768999</v>
       </c>
       <c r="E4" s="1">
         <v>12.7982424751808</v>
@@ -187,21 +504,21 @@
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1663.16868112129</v>
+        <v>1663.1686811212901</v>
       </c>
       <c r="D5" s="1">
-        <v>1206.10048323734</v>
+        <v>1206.1004832373401</v>
       </c>
       <c r="E5" s="1">
         <v>13.2586549023833</v>
@@ -213,24 +530,24 @@
         <v>13.5</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>2350.37418935877</v>
+        <v>2350.3741893587699</v>
       </c>
       <c r="D6" s="1">
-        <v>1209.90067834984</v>
+        <v>1209.9006783498401</v>
       </c>
       <c r="E6" s="1">
-        <v>13.8987722750511</v>
+        <v>13.898772275051099</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -239,70 +556,70 @@
         <v>15.5</v>
       </c>
       <c r="H6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>1822.60101336873</v>
       </c>
       <c r="D7" s="1">
-        <v>1307.46705711332</v>
+        <v>1307.4670571133199</v>
       </c>
       <c r="E7" s="1">
-        <v>17.028092803024</v>
+        <v>17.028092803023998</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>546.837469531205</v>
+        <v>546.83746953120499</v>
       </c>
       <c r="D8" s="1">
-        <v>1308.71489144606</v>
+        <v>1308.7148914460599</v>
       </c>
       <c r="E8" s="1">
-        <v>14.5528690822861</v>
+        <v>14.552869082286101</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.93814411438</v>
+        <v>1248.9381441143801</v>
       </c>
       <c r="D9" s="1">
         <v>1376.17671467692</v>
@@ -314,41 +631,41 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>2349.46016119293</v>
+        <v>2349.4601611929302</v>
       </c>
       <c r="D10" s="1">
         <v>1414.07337691318</v>
       </c>
       <c r="E10" s="1">
-        <v>13.4212001347943</v>
+        <v>13.421200134794301</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>1404.05480999105</v>
@@ -363,93 +680,93 @@
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>1288.26437096706</v>
+        <v>1288.2643709670599</v>
       </c>
       <c r="D12" s="1">
-        <v>1599.45600143393</v>
+        <v>1599.4560014339299</v>
       </c>
       <c r="E12" s="1">
-        <v>13.2551264946728</v>
+        <v>13.255126494672799</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>181.715998401491</v>
+        <v>181.71599840149099</v>
       </c>
       <c r="D13" s="1">
         <v>1601.59327294525</v>
       </c>
       <c r="E13" s="1">
-        <v>13.6127966383291</v>
+        <v>13.612796638329099</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>1033.75398024487</v>
       </c>
       <c r="D14" s="1">
-        <v>1681.80189284339</v>
+        <v>1681.8018928433901</v>
       </c>
       <c r="E14" s="1">
-        <v>17.6344232404365</v>
+        <v>17.634423240436501</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>1423.61714372583</v>
+        <v>1423.6171437258299</v>
       </c>
       <c r="D15" s="1">
         <v>1734.40122920557</v>
@@ -461,18 +778,18 @@
         <v>7</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>1230.8337595032</v>
+        <v>1230.8337595032001</v>
       </c>
       <c r="D16" s="1">
         <v>1776.88766238213</v>
@@ -487,41 +804,41 @@
         <v>12.5</v>
       </c>
       <c r="H16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>742.774378394989</v>
+        <v>742.77437839498896</v>
       </c>
       <c r="D17" s="1">
-        <v>1798.90742129951</v>
+        <v>1798.9074212995099</v>
       </c>
       <c r="E17" s="1">
-        <v>15.7329696152557</v>
+        <v>15.732969615255699</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>2380.1093746599</v>
+        <v>2380.1093746598999</v>
       </c>
       <c r="D18" s="1">
         <v>1846.03911368434</v>
@@ -533,21 +850,21 @@
         <v>7</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>1089.84249324095</v>
       </c>
       <c r="D19" s="1">
-        <v>1849.36057367353</v>
+        <v>1849.3605736735301</v>
       </c>
       <c r="E19" s="1">
         <v>13.1495816974217</v>
@@ -556,44 +873,44 @@
         <v>7</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>129.148758115888</v>
       </c>
       <c r="D20" s="1">
-        <v>971.895312691412</v>
+        <v>971.89531269141196</v>
       </c>
       <c r="E20" s="1">
-        <v>17.9707522326672</v>
+        <v>17.970752232667198</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>897.589574800078</v>
+        <v>897.58957480007803</v>
       </c>
       <c r="D21" s="1">
-        <v>1468.45743124634</v>
+        <v>1468.4574312463401</v>
       </c>
       <c r="E21" s="1">
         <v>12.3246428245558</v>
@@ -602,38 +919,38 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1">
-        <v>2051.82247346562</v>
+        <v>2051.8224734656201</v>
       </c>
       <c r="D22" s="1">
         <v>506.876419012459</v>
       </c>
       <c r="E22" s="1">
-        <v>11.0780550687862</v>
+        <v>11.078055068786201</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
         <v>2243.48646758922</v>
@@ -651,99 +968,99 @@
         <v>7.5</v>
       </c>
       <c r="H23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1">
-        <v>1103.51118502935</v>
+        <v>1103.5111850293499</v>
       </c>
       <c r="D24" s="1">
         <v>322.504190944036</v>
       </c>
       <c r="E24" s="1">
-        <v>15.0113268758965</v>
+        <v>15.011326875896501</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>1176.41650864103</v>
+        <v>1176.4165086410301</v>
       </c>
       <c r="D25" s="1">
-        <v>526.124212287079</v>
+        <v>526.12421228707899</v>
       </c>
       <c r="E25" s="1">
-        <v>16.9865293203845</v>
+        <v>16.986529320384498</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
-        <v>1996.31184395104</v>
+        <v>1996.3118439510399</v>
       </c>
       <c r="D26" s="1">
-        <v>231.468818023508</v>
+        <v>231.46881802350799</v>
       </c>
       <c r="E26" s="1">
-        <v>23.0899114399188</v>
+        <v>23.089911439918801</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
-        <v>1915.87399770904</v>
+        <v>1915.8739977090399</v>
       </c>
       <c r="D27" s="1">
-        <v>213.338070028791</v>
+        <v>213.33807002879101</v>
       </c>
       <c r="E27" s="1">
         <v>14.6744004562503</v>
@@ -755,15 +1072,15 @@
         <v>17.5</v>
       </c>
       <c r="H27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>2299.1515358928</v>
@@ -772,7 +1089,7 @@
         <v>194.811420156389</v>
       </c>
       <c r="E28" s="1">
-        <v>10.9763927597882</v>
+        <v>10.976392759788199</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
@@ -781,24 +1098,24 @@
         <v>8.5</v>
       </c>
       <c r="H28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>120.796833725018</v>
       </c>
       <c r="D29" s="1">
-        <v>165.003333879871</v>
+        <v>165.00333387987101</v>
       </c>
       <c r="E29" s="1">
-        <v>13.0691562711423</v>
+        <v>13.069156271142299</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
@@ -807,21 +1124,21 @@
         <v>10.5</v>
       </c>
       <c r="H29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <v>2426.04513785947</v>
+        <v>2426.0451378594698</v>
       </c>
       <c r="D30" s="1">
-        <v>968.782834272161</v>
+        <v>968.78283427216104</v>
       </c>
       <c r="E30" s="1">
         <v>12.8759657164708</v>
@@ -830,47 +1147,47 @@
         <v>7</v>
       </c>
       <c r="H30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
-        <v>2130.66721915908</v>
+        <v>2130.6672191590801</v>
       </c>
       <c r="D31" s="1">
-        <v>525.344958224808</v>
+        <v>525.34495822480801</v>
       </c>
       <c r="E31" s="1">
-        <v>12.0406289112891</v>
+        <v>12.040628911289099</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
-        <v>294.496598521548</v>
+        <v>294.49659852154798</v>
       </c>
       <c r="D32" s="1">
-        <v>930.672444124758</v>
+        <v>930.67244412475804</v>
       </c>
       <c r="E32" s="1">
-        <v>18.0843223715018</v>
+        <v>18.084322371501798</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -879,21 +1196,21 @@
         <v>21.5</v>
       </c>
       <c r="H32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1">
-        <v>1928.83172778998</v>
+        <v>1928.8317277899801</v>
       </c>
       <c r="D33" s="1">
-        <v>568.235742587272</v>
+        <v>568.23574258727194</v>
       </c>
       <c r="E33" s="1">
         <v>10.7803684825279</v>
@@ -905,44 +1222,44 @@
         <v>10.5</v>
       </c>
       <c r="H33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1">
-        <v>781.375058943015</v>
+        <v>781.37505894301501</v>
       </c>
       <c r="D34" s="1">
-        <v>866.39574340745</v>
+        <v>866.39574340745003</v>
       </c>
       <c r="E34" s="1">
-        <v>15.6722765678824</v>
+        <v>15.672276567882401</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1">
-        <v>1264.70165134872</v>
+        <v>1264.7016513487199</v>
       </c>
       <c r="D35" s="1">
-        <v>816.758215646715</v>
+        <v>816.75821564671503</v>
       </c>
       <c r="E35" s="1">
         <v>14.2664763346594</v>
@@ -951,21 +1268,21 @@
         <v>7</v>
       </c>
       <c r="H35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
         <v>1577.19405871191</v>
       </c>
       <c r="D36" s="1">
-        <v>759.249459168751</v>
+        <v>759.24945916875095</v>
       </c>
       <c r="E36" s="1">
         <v>13.6157868776237</v>
@@ -974,47 +1291,47 @@
         <v>7</v>
       </c>
       <c r="H36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1">
-        <v>1194.53896622382</v>
+        <v>1194.5389662238199</v>
       </c>
       <c r="D37" s="1">
-        <v>700.349257809118</v>
+        <v>700.34925780911794</v>
       </c>
       <c r="E37" s="1">
-        <v>15.8786518243023</v>
+        <v>15.878651824302301</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1">
-        <v>1778.67124537816</v>
+        <v>1778.6712453781599</v>
       </c>
       <c r="D38" s="1">
-        <v>642.256969206597</v>
+        <v>642.25696920659698</v>
       </c>
       <c r="E38" s="1">
         <v>16.8950272570099</v>
@@ -1023,24 +1340,24 @@
         <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1">
-        <v>1114.4342102932</v>
+        <v>1114.4342102932001</v>
       </c>
       <c r="D39" s="1">
-        <v>612.47091859332</v>
+        <v>612.47091859331999</v>
       </c>
       <c r="E39" s="1">
         <v>11.8616653689002</v>
@@ -1052,24 +1369,24 @@
         <v>11.4</v>
       </c>
       <c r="H39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>232.011104148389</v>
+        <v>232.01110414838899</v>
       </c>
       <c r="D40" s="1">
-        <v>618.356560972553</v>
+        <v>618.35656097255298</v>
       </c>
       <c r="E40" s="1">
-        <v>13.6171866736074</v>
+        <v>13.617186673607399</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -1078,24 +1395,24 @@
         <v>16.5</v>
       </c>
       <c r="H40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1">
         <v>1519.28593653289</v>
       </c>
       <c r="D41" s="1">
-        <v>596.434533866408</v>
+        <v>596.43453386640795</v>
       </c>
       <c r="E41" s="1">
-        <v>13.0446951284739</v>
+        <v>13.044695128473901</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -1104,18 +1421,18 @@
         <v>11.5</v>
       </c>
       <c r="H41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1">
-        <v>652.116018044466</v>
+        <v>652.11601804446605</v>
       </c>
       <c r="D42" s="1">
         <v>582.768232429916</v>
@@ -1127,21 +1444,21 @@
         <v>7</v>
       </c>
       <c r="H42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1">
         <v>2219.01370704907</v>
       </c>
       <c r="D43" s="1">
-        <v>640.759841077691</v>
+        <v>640.75984107769102</v>
       </c>
       <c r="E43" s="1">
         <v>19.8344481291611</v>
@@ -1150,10 +1467,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>